--- a/SeleniumTests/TestDataFolder/StoreTestDataValid.xlsx
+++ b/SeleniumTests/TestDataFolder/StoreTestDataValid.xlsx
@@ -8,14 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cloudbite\SeleniumTests\TestDataFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50177767-296B-4341-A572-B7496F823A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341CE23-D46A-483E-8268-3DE56C45CABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StoreGroupTestData" sheetId="2" r:id="rId1"/>
     <sheet name="UpdateStoreGroupTestData" sheetId="5" r:id="rId2"/>
     <sheet name="SearchStoreGroupTestData" sheetId="4" r:id="rId3"/>
+    <sheet name="StoreCountryTestData" sheetId="6" r:id="rId4"/>
+    <sheet name="UpdateStoreCountryTestData" sheetId="7" r:id="rId5"/>
+    <sheet name="SearchStoreCountryTestData" sheetId="9" r:id="rId6"/>
+    <sheet name="StoreStateTestData" sheetId="10" r:id="rId7"/>
+    <sheet name="UpdateStoreStateTestData" sheetId="11" r:id="rId8"/>
+    <sheet name="SearchStoreStateTestData" sheetId="12" r:id="rId9"/>
+    <sheet name="StoreCityTestData" sheetId="13" r:id="rId10"/>
+    <sheet name="UpdateStoreCityTestData" sheetId="14" r:id="rId11"/>
+    <sheet name="SearchStoreCityTestData" sheetId="15" r:id="rId12"/>
+    <sheet name="StoreTestData" sheetId="16" r:id="rId13"/>
+    <sheet name="UpdateStoreTestData" sheetId="19" r:id="rId14"/>
+    <sheet name="UpdateStoreTerminalTestData" sheetId="20" r:id="rId15"/>
+    <sheet name="DeleteStoreTerminalTestData" sheetId="21" r:id="rId16"/>
+    <sheet name="SearchStoreTestData" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="74">
   <si>
     <t>Group Code</t>
   </si>
@@ -62,16 +76,222 @@
   </si>
   <si>
     <t>searchText</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Country Name</t>
+  </si>
+  <si>
+    <t>Country Status</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Search Text</t>
+  </si>
+  <si>
+    <t>MY</t>
+  </si>
+  <si>
+    <t>State Code</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>State Name</t>
+  </si>
+  <si>
+    <t>Kepong</t>
+  </si>
+  <si>
+    <t>Kepong2</t>
+  </si>
+  <si>
+    <t>Kepong1</t>
+  </si>
+  <si>
+    <t>City Code</t>
+  </si>
+  <si>
+    <t>City Name</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur1</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuala Lumpur	</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>QubeApp1</t>
+  </si>
+  <si>
+    <t>Mr. Hugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qubeapps@gmail.com	</t>
+  </si>
+  <si>
+    <t>Store Code</t>
+  </si>
+  <si>
+    <t>Store Name</t>
+  </si>
+  <si>
+    <t>Store Status</t>
+  </si>
+  <si>
+    <t>Store Logo</t>
+  </si>
+  <si>
+    <t>Store Description</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>Address4</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>EatmolID</t>
+  </si>
+  <si>
+    <t>Store Country</t>
+  </si>
+  <si>
+    <t>Store State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Price Level</t>
+  </si>
+  <si>
+    <t>Store Group</t>
+  </si>
+  <si>
+    <t>eReceipt Status</t>
+  </si>
+  <si>
+    <t>eReceiptEmail</t>
+  </si>
+  <si>
+    <t>eReceiptPDF</t>
+  </si>
+  <si>
+    <t>Footer Phone Number</t>
+  </si>
+  <si>
+    <t>Footer Email</t>
+  </si>
+  <si>
+    <t>Footer Message</t>
+  </si>
+  <si>
+    <t>S005</t>
+  </si>
+  <si>
+    <t>QubeApps5</t>
+  </si>
+  <si>
+    <t>QubeApps Solution Sdn Bhd</t>
+  </si>
+  <si>
+    <t>25-01, Level 25, iMazium, 8,</t>
+  </si>
+  <si>
+    <t>Jalan SS21/37, Damansara Utama,</t>
+  </si>
+  <si>
+    <t>47400 Petaling Jaya, Selangor</t>
+  </si>
+  <si>
+    <t>qubeapps5@gmail.com</t>
+  </si>
+  <si>
+    <t>01234567890</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>01987654321</t>
+  </si>
+  <si>
+    <t>Thank You Very Much... Please Visit Qube Apps Again…</t>
+  </si>
+  <si>
+    <t>D:\cloudbite\SeleniumTests\Image\qubeapps logo.png</t>
+  </si>
+  <si>
+    <t>D:\cloudbite\SeleniumTests\Image\QubeApps10Year.jpg</t>
+  </si>
+  <si>
+    <t>Terminal ID</t>
+  </si>
+  <si>
+    <t>Terminal Description</t>
+  </si>
+  <si>
+    <t>Terminal Status</t>
+  </si>
+  <si>
+    <t>Terminal 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T-05 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -94,13 +314,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,11 +639,919 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134247D8-1A03-4A63-AC2B-0A5F442BB987}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C767A24B-1472-40E5-AB3E-AD9C7AD7F6F0}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63DEEDD-C904-493A-8EE7-14DFCB2EE96A}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83493D2C-D222-4AA4-982B-3CE536D7185B}">
+  <dimension ref="A1:Y2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="23" max="23" width="10" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>47400</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{B397E0AA-B0B7-4F70-AAF3-A0ADBAE90327}"/>
+    <hyperlink ref="X2" r:id="rId2" xr:uid="{FB15DA0E-C8EF-4159-A139-460E0ABB7154}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D9E0AE-1259-4854-9B2F-ED6374A2846A}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>47400</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{23C86B34-4920-461F-8FD4-80272E6C1D1A}"/>
+    <hyperlink ref="X2" r:id="rId2" xr:uid="{F56711F3-87D5-4BE8-A564-62A26B975D9E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D862CE27-8791-47F2-A78B-2099EF20276A}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>47400</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{7F224EDA-87DC-4927-A9F9-9EF9B109631F}"/>
+    <hyperlink ref="X2" r:id="rId2" xr:uid="{0A8FCCD9-CB68-4ECC-BE22-26900BCBBCCA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF8C297-3221-41A0-991D-39AD39C8AEE4}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>47400</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{B3515D5E-504C-47BF-91E7-2A3B8A611E2C}"/>
+    <hyperlink ref="X2" r:id="rId2" xr:uid="{ED11A2EE-FD5D-4A0D-A863-9461C5D1741D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21CBF60-ECB5-4DCE-98E8-067F120DA8DC}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{6AA4CAD1-BF24-4A1B-9CE1-291866682732}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5EFA1C-93E4-4BC8-8A6B-4CBD41B53698}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -479,4 +1612,212 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BABA23C1-0EC2-48B2-B06F-88466D4D7F08}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59970DB0-B2FF-4367-8166-5F14CB1AD3DE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AA469A-8DE7-47E9-BD4E-4E7E7EEF34C5}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07EEAA7-71E1-4F8B-B538-349F0B3D31CD}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3728321-1085-4DAB-A1B5-642AA4329862}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0CE139-BB77-4839-BEAA-C6FCC54BEBCD}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>